--- a/0_1_Output_Data/5_ifoCAST_error_series_full/ifoCAst_errors_full_T55.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_full/ifoCAst_errors_full_T55.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>Qminus1</t>
   </si>
@@ -440,6 +440,21 @@
   </si>
   <si>
     <t>2025-07-07_diff</t>
+  </si>
+  <si>
+    <t>2025-07-25_diff</t>
+  </si>
+  <si>
+    <t>2025-08-07_diff</t>
+  </si>
+  <si>
+    <t>2025-08-22_diff</t>
+  </si>
+  <si>
+    <t>2025-08-25_diff</t>
+  </si>
+  <si>
+    <t>2025-09-08_diff</t>
   </si>
 </sst>
 </file>
@@ -797,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2114,9 +2129,6 @@
       <c r="C128">
         <v>0.238543425</v>
       </c>
-      <c r="D128">
-        <v>-0.126881291408459</v>
-      </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
@@ -2126,7 +2138,7 @@
         <v>0.5125086489999999</v>
       </c>
       <c r="D129">
-        <v>0.09207746795963706</v>
+        <v>0.092077468</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2137,7 +2149,7 @@
         <v>0.5162913069999999</v>
       </c>
       <c r="D130">
-        <v>0.1035035036921571</v>
+        <v>0.103503504</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2148,7 +2160,7 @@
         <v>0.532749825</v>
       </c>
       <c r="D131">
-        <v>0.02315905468878598</v>
+        <v>0.02315905499999998</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2159,7 +2171,7 @@
         <v>0.754074326</v>
       </c>
       <c r="D132">
-        <v>0.08488154755122901</v>
+        <v>0.08488154800000003</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2170,7 +2182,7 @@
         <v>0.6605194750000001</v>
       </c>
       <c r="C133">
-        <v>-0.09361257086191799</v>
+        <v>-0.09361257099999998</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2181,7 +2193,7 @@
         <v>0.749696619</v>
       </c>
       <c r="C134">
-        <v>-0.835520558812985</v>
+        <v>-0.835520559</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2189,7 +2201,7 @@
         <v>136</v>
       </c>
       <c r="C135">
-        <v>-0.4568284694504001</v>
+        <v>-0.456828469</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2197,7 +2209,10 @@
         <v>137</v>
       </c>
       <c r="C136">
-        <v>-0.169753125104396</v>
+        <v>-0.169753125</v>
+      </c>
+      <c r="D136">
+        <v>1.068686474</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2205,7 +2220,10 @@
         <v>138</v>
       </c>
       <c r="C137">
-        <v>-0.142108799890923</v>
+        <v>-0.1421088</v>
+      </c>
+      <c r="D137">
+        <v>1.064811887</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2213,7 +2231,10 @@
         <v>139</v>
       </c>
       <c r="C138">
-        <v>-0.3829587257307236</v>
+        <v>-0.382958726</v>
+      </c>
+      <c r="D138">
+        <v>0.874431902</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2221,7 +2242,10 @@
         <v>140</v>
       </c>
       <c r="C139">
-        <v>-0.297093019504101</v>
+        <v>-0.29709302</v>
+      </c>
+      <c r="D139">
+        <v>0.8972184870000001</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2229,7 +2253,53 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>-0.588418200506313</v>
+        <v>-0.588418201</v>
+      </c>
+      <c r="C140">
+        <v>0.518578844</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141">
+        <v>-0.6323316999999999</v>
+      </c>
+      <c r="C141">
+        <v>0.608342578</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142">
+        <v>0.430873215</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143">
+        <v>0.443590468</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144">
+        <v>0.319050665</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145">
+        <v>0.543389307</v>
       </c>
     </row>
   </sheetData>
